--- a/02_MasterWifoMannheim/99_Backup/Course157.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course157.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD300D369A3B9231159A138F76B71FE36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949CFC69-47AD-4A13-B196-8C94C75A6059}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 544 Demand-driven adaptive supply chain planning</t>
-  </si>
-  <si>
-    <t>C Tontents</t>
-  </si>
-  <si>
-    <t>Supply chain management involves the coordination of different parties within and across customers, and wholesalers. With increasing size of an organization and its supply chain structures, global supply chain management (SCM) requires adequate visibility and decision support. Furthermore SCM is today increasingly faced with the need of a new Demand-Driven operating model for the highly digital interlinked complex business environment becoming the New Normal. SAP SCM APO and SAP IBP (Integrated Business Planning) are used to standardize global planning processes and to solve the required planning tasks, such as statistical forecasting, inventory and supply network planning. In many large corporations, they form the backbone of global supply chain planning today. his course discusses how SCM and Demand-Driven daptive supported by integrated business planning systems. supply network planning, production planning &amp; scheduling, as well as other related topics, such as global availability check, inventory &amp; supply network replenishment.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will understand the necessity and benefits of Demand-Driven Planning Systems for corporate SCM. They will understand their structure, how these systems are applied and used within the Sales &amp; Operations Process, and how they are implemented within various organizations. Students will also get an introduction into SAP SCM and SAP IBP, today’s leading Advanced and Integrated Business Planning Systems in SCM.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:“Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 (blocked) 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Josef Packowski / Prof. Dr. Moritz Fleischmann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>3 days (blocked)</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ., M.Sc. Bus. Edu.</t>
-  </si>
-  <si>
-    <t>OPM 501, OPM 502, OPM 561</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 544 Demand-driven adaptive supply chain planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Tontents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Supply chain management involves the coordination of different parties within and across customers, and wholesalers. With increasing size of an organization and its supply chain structures, global supply chain management (SCM) requires adequate visibility and decision support. Furthermore SCM is today increasingly faced with the need of a new Demand-Driven operating model for the highly digital interlinked complex business environment becoming the New Normal. SAP SCM APO and SAP IBP (Integrated Business Planning) are used to standardize global planning processes and to solve the required planning tasks, such as statistical forecasting, inventory and supply network planning. In many large corporations, they form the backbone of global supply chain planning today. his course discusses how SCM and Demand-Driven daptive supported by integrated business planning systems. supply network planning, production planning &amp; scheduling, as well as other related topics, such as global availability check, inventory &amp; supply network replenishment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will understand the necessity and benefits of Demand-Driven Planning Systems for corporate SCM. They will understand their structure, how these systems are applied and used within the Sales &amp; Operations Process, and how they are implemented within various organizations. Students will also get an introduction into SAP SCM and SAP IBP, today’s leading Advanced and Integrated Business Planning Systems in SCM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OPM 501, OPM 502, OPM 561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:“Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 (blocked) 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Josef Packowski / Prof. Dr. Moritz Fleischmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3 days (blocked)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ., M.Sc. Bus. Edu.</t>
+        </is>
       </c>
     </row>
   </sheetData>
